--- a/felix_playground_SQA_Training/module_guide_sqa.xlsx
+++ b/felix_playground_SQA_Training/module_guide_sqa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixNeubauer\ML_Kurs\enterprise-ai-project\felix_playground_SQA_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE8668-E910-43DC-BA3B-687490B68AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25B4AD-3FA5-490A-ABDC-5137A3505B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E96C0C9E-F376-4F78-B825-9B8BE6615F2B}"/>
+    <workbookView minimized="1" xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7270" xr2:uid="{E96C0C9E-F376-4F78-B825-9B8BE6615F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['(2, 4)']</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CB1F0B-54E1-426C-8041-D913B1783374}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,6 +486,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
